--- a/test/xlsx/with_header_information.xlsx
+++ b/test/xlsx/with_header_information.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>columnA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>column B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>column-C</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>value 1-A</t>
     <phoneticPr fontId="1"/>
@@ -399,11 +387,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -413,7 +399,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -436,17 +422,6 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
